--- a/Data/Discount_Cheker/CV Discount Check Master File 03.12.2025.xlsx
+++ b/Data/Discount_Cheker/CV Discount Check Master File 03.12.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\To be Consider\12 Dec-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E64AF1-464F-4F01-916A-BF9BB444191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0A730-BF3F-462A-A665-CD66A62DF571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
   </bookViews>
@@ -1091,6 +1091,7 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,7 +1125,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="9"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -1662,7 +1662,7 @@
     </row>
     <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="9"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="7" spans="1:15" ht="18.75">
       <c r="A7" s="9"/>
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="19" t="s">
         <v>64</v>
       </c>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="8" spans="1:15" ht="18.75">
       <c r="A8" s="9"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="9" spans="1:15" ht="18.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="19" t="s">
         <v>66</v>
       </c>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="10" spans="1:15" ht="18.75">
       <c r="A10" s="9"/>
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="19" t="s">
         <v>67</v>
       </c>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="11" spans="1:15" ht="18.75">
       <c r="A11" s="9"/>
-      <c r="B11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="19" t="s">
         <v>56</v>
       </c>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="12" spans="1:15" ht="18.75">
       <c r="A12" s="9"/>
-      <c r="B12" s="46"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="19" t="s">
         <v>57</v>
       </c>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="23">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Q$45,MATCH(Report!$C13,Sheet1!$B$2:$Q$2,0),0),"")</f>
-        <v>897566</v>
+        <v>897567</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="41">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="17" t="s">
         <v>69</v>
       </c>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="15" spans="1:15" ht="18.75" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="48" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1924,7 +1924,7 @@
     </row>
     <row r="16" spans="1:15" ht="18.75">
       <c r="A16" s="9"/>
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="14" t="s">
         <v>83</v>
       </c>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="17" spans="1:15" ht="18.75">
       <c r="A17" s="9"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="33" t="s">
         <v>84</v>
       </c>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="18" spans="1:15" ht="18.75">
       <c r="A18" s="9"/>
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="33" t="s">
         <v>79</v>
       </c>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="19" spans="1:15" ht="19.5" thickBot="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="15" t="s">
         <v>80</v>
       </c>
@@ -2261,7 +2261,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2282,29 +2282,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="55" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="75.75" thickBot="1">
       <c r="A2" s="31" t="s">
@@ -2391,7 +2391,7 @@
         <v>12000</v>
       </c>
       <c r="K3" s="8">
-        <v>897566</v>
+        <v>897567</v>
       </c>
       <c r="L3" s="35">
         <v>878249</v>
@@ -2715,7 +2715,7 @@
         <v>12000</v>
       </c>
       <c r="K9" s="8">
-        <v>913153</v>
+        <v>913154</v>
       </c>
       <c r="L9" s="35">
         <v>901245</v>
@@ -2769,7 +2769,7 @@
         <v>12000</v>
       </c>
       <c r="K10" s="8">
-        <v>1056262</v>
+        <v>1056263</v>
       </c>
       <c r="L10" s="35">
         <v>1033345</v>
@@ -2877,10 +2877,10 @@
         <v>17000</v>
       </c>
       <c r="K12" s="8">
-        <v>1067920</v>
+        <v>1072921</v>
       </c>
       <c r="L12" s="35">
-        <v>1044748</v>
+        <v>1049748</v>
       </c>
       <c r="M12" s="37">
         <v>26000</v>
@@ -2931,10 +2931,10 @@
         <v>17000</v>
       </c>
       <c r="K13" s="8">
-        <v>1040916</v>
+        <v>1045916</v>
       </c>
       <c r="L13" s="35">
-        <v>1018366</v>
+        <v>1023366</v>
       </c>
       <c r="M13" s="37">
         <v>26000</v>
@@ -2985,10 +2985,10 @@
         <v>17000</v>
       </c>
       <c r="K14" s="8">
-        <v>1098404</v>
+        <v>1103405</v>
       </c>
       <c r="L14" s="35">
-        <v>1074544</v>
+        <v>1079545</v>
       </c>
       <c r="M14" s="37">
         <v>35000</v>
@@ -3039,10 +3039,10 @@
         <v>17000</v>
       </c>
       <c r="K15" s="8">
-        <v>1113703</v>
+        <v>1118702</v>
       </c>
       <c r="L15" s="35">
-        <v>1089498</v>
+        <v>1094497</v>
       </c>
       <c r="M15" s="37">
         <v>29000</v>
@@ -3093,10 +3093,10 @@
         <v>17000</v>
       </c>
       <c r="K16" s="8">
-        <v>1095272</v>
+        <v>1100271</v>
       </c>
       <c r="L16" s="35">
-        <v>1071482</v>
+        <v>1076481</v>
       </c>
       <c r="M16" s="37">
         <v>35000</v>
@@ -3147,10 +3147,10 @@
         <v>17000</v>
       </c>
       <c r="K17" s="8">
-        <v>1093304</v>
+        <v>1098304</v>
       </c>
       <c r="L17" s="35">
-        <v>1069559</v>
+        <v>1074559</v>
       </c>
       <c r="M17" s="37">
         <v>29000</v>
@@ -3201,10 +3201,10 @@
         <v>17000</v>
       </c>
       <c r="K18" s="8">
-        <v>1123789</v>
+        <v>1128789</v>
       </c>
       <c r="L18" s="35">
-        <v>1099356</v>
+        <v>1104356</v>
       </c>
       <c r="M18" s="37">
         <v>32000</v>
@@ -3255,10 +3255,10 @@
         <v>17000</v>
       </c>
       <c r="K19" s="8">
-        <v>1123789</v>
+        <v>1128789</v>
       </c>
       <c r="L19" s="35">
-        <v>1099356</v>
+        <v>1104356</v>
       </c>
       <c r="M19" s="37">
         <v>25000</v>
@@ -3309,10 +3309,10 @@
         <v>17000</v>
       </c>
       <c r="K20" s="8">
-        <v>1107548</v>
+        <v>1112548</v>
       </c>
       <c r="L20" s="35">
-        <v>1083480</v>
+        <v>1088480</v>
       </c>
       <c r="M20" s="37">
         <v>32000</v>
@@ -3363,7 +3363,7 @@
         <v>12000</v>
       </c>
       <c r="K21" s="8">
-        <v>1189043</v>
+        <v>1189044</v>
       </c>
       <c r="L21" s="35">
         <v>1163371</v>
@@ -3741,10 +3741,10 @@
         <v>12000</v>
       </c>
       <c r="K28" s="8">
-        <v>1207307</v>
+        <v>1207306</v>
       </c>
       <c r="L28" s="35">
-        <v>1171110</v>
+        <v>1171109</v>
       </c>
       <c r="M28" s="37">
         <v>23000</v>
@@ -3849,10 +3849,10 @@
         <v>12000</v>
       </c>
       <c r="K30" s="8">
-        <v>1025677</v>
+        <v>1021677</v>
       </c>
       <c r="L30" s="35">
-        <v>1003539</v>
+        <v>999539</v>
       </c>
       <c r="M30" s="37">
         <v>20000</v>
@@ -3903,10 +3903,10 @@
         <v>12000</v>
       </c>
       <c r="K31" s="8">
-        <v>1120230</v>
+        <v>1116230</v>
       </c>
       <c r="L31" s="35">
-        <v>1095980</v>
+        <v>1091980</v>
       </c>
       <c r="M31" s="37">
         <v>20000</v>
@@ -3957,10 +3957,10 @@
         <v>12000</v>
       </c>
       <c r="K32" s="8">
-        <v>1150054</v>
+        <v>1146055</v>
       </c>
       <c r="L32" s="35">
-        <v>1125111</v>
+        <v>1121112</v>
       </c>
       <c r="M32" s="37">
         <v>20000</v>
@@ -4011,10 +4011,10 @@
         <v>12000</v>
       </c>
       <c r="K33" s="8">
-        <v>1064361</v>
+        <v>1062362</v>
       </c>
       <c r="L33" s="35">
-        <v>1041306</v>
+        <v>1039307</v>
       </c>
       <c r="M33" s="37">
         <v>15000</v>
@@ -4065,10 +4065,10 @@
         <v>12000</v>
       </c>
       <c r="K34" s="8">
-        <v>1150491</v>
+        <v>1148491</v>
       </c>
       <c r="L34" s="35">
-        <v>1125493</v>
+        <v>1123493</v>
       </c>
       <c r="M34" s="37">
         <v>15000</v>
@@ -4228,7 +4228,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="45" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4442,6 +4442,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060EDED336F4AC345937821C4378B0575" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="494f29b6abfd1a658fb4a91257319fb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc81ea25-3c65-47fe-b799-37236d34457b" xmlns:ns4="3aa501bf-b653-40a4-9ae9-61a4d1229c70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79a9a6d6e67940bfc0c15f927b8771f4" ns3:_="" ns4:_="">
     <xsd:import namespace="cc81ea25-3c65-47fe-b799-37236d34457b"/>
@@ -4664,22 +4679,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6B08E05-D3E6-4391-8AA6-C9B1EA9A23D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4696,21 +4713,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>